--- a/international/france/finance/FR/estimations/11_ecologie_modesdevie/11_ecologie_modesdevie.xlsx
+++ b/international/france/finance/FR/estimations/11_ecologie_modesdevie/11_ecologie_modesdevie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mesure</t>
   </si>
@@ -31,19 +31,22 @@
     <t>Total – Haute (M€)</t>
   </si>
   <si>
-    <t>Réparateur·rice par bassin de vie</t>
-  </si>
-  <si>
-    <t>Zones de réensauvagement citoyen</t>
-  </si>
-  <si>
-    <t>Taxe kilométrique sur produits non vitaux</t>
-  </si>
-  <si>
-    <t>Bonus écologique local</t>
-  </si>
-  <si>
-    <t>TVA éthique participative</t>
+    <t>Crédit d’impôt mode de vie durable</t>
+  </si>
+  <si>
+    <t>Réensauvagement encadré</t>
+  </si>
+  <si>
+    <t>Sobriété désirable</t>
+  </si>
+  <si>
+    <t>Réseau public de réparation</t>
+  </si>
+  <si>
+    <t>Lutte contre l’obsolescence culturelle</t>
+  </si>
+  <si>
+    <t>Taxe kilométrique écologique</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +432,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2250</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E2">
-        <v>2250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +449,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +466,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +483,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E5">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +500,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>1800</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>700</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
